--- a/data/train_ppm.xlsx
+++ b/data/train_ppm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>value</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,6 +469,9 @@
       <c r="C2" t="n">
         <v>1300</v>
       </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,6 +487,9 @@
       <c r="C3" t="n">
         <v>1224</v>
       </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,6 +505,9 @@
       <c r="C4" t="n">
         <v>15956</v>
       </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -509,6 +523,9 @@
       <c r="C5" t="n">
         <v>2021</v>
       </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -524,6 +541,9 @@
       <c r="C6" t="n">
         <v>4478</v>
       </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +559,9 @@
       <c r="C7" t="n">
         <v>63</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -554,6 +577,9 @@
       <c r="C8" t="n">
         <v>218</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -569,6 +595,9 @@
       <c r="C9" t="n">
         <v>8050</v>
       </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -584,6 +613,9 @@
       <c r="C10" t="n">
         <v>738</v>
       </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -599,6 +631,9 @@
       <c r="C11" t="n">
         <v>1774</v>
       </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -614,6 +649,9 @@
       <c r="C12" t="n">
         <v>788696</v>
       </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -629,6 +667,9 @@
       <c r="C13" t="n">
         <v>9600</v>
       </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -644,6 +685,9 @@
       <c r="C14" t="n">
         <v>200</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -659,6 +703,9 @@
       <c r="C15" t="n">
         <v>73</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -674,6 +721,9 @@
       <c r="C16" t="n">
         <v>13700</v>
       </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -689,6 +739,9 @@
       <c r="C17" t="n">
         <v>10.5</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -704,6 +757,9 @@
       <c r="C18" t="n">
         <v>1774</v>
       </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -719,6 +775,9 @@
       <c r="C19" t="n">
         <v>8050</v>
       </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -734,6 +793,9 @@
       <c r="C20" t="n">
         <v>2773</v>
       </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -749,6 +811,9 @@
       <c r="C21" t="n">
         <v>40250</v>
       </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -764,6 +829,9 @@
       <c r="C22" t="n">
         <v>8050</v>
       </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -779,6 +847,9 @@
       <c r="C23" t="n">
         <v>185</v>
       </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -794,6 +865,9 @@
       <c r="C24" t="n">
         <v>5700</v>
       </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -809,6 +883,9 @@
       <c r="C25" t="n">
         <v>60000</v>
       </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -824,6 +901,9 @@
       <c r="C26" t="n">
         <v>12.2</v>
       </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -839,6 +919,9 @@
       <c r="C27" t="n">
         <v>707</v>
       </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -854,6 +937,9 @@
       <c r="C28" t="n">
         <v>4185</v>
       </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -869,6 +955,9 @@
       <c r="C29" t="n">
         <v>10000</v>
       </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -884,6 +973,9 @@
       <c r="C30" t="n">
         <v>13300</v>
       </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -899,6 +991,9 @@
       <c r="C31" t="n">
         <v>10.5</v>
       </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -914,6 +1009,9 @@
       <c r="C32" t="n">
         <v>2.4</v>
       </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -929,6 +1027,9 @@
       <c r="C33" t="n">
         <v>1352</v>
       </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -944,6 +1045,9 @@
       <c r="C34" t="n">
         <v>26643</v>
       </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -959,6 +1063,9 @@
       <c r="C35" t="n">
         <v>8050</v>
       </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -974,6 +1081,9 @@
       <c r="C36" t="n">
         <v>751</v>
       </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -989,6 +1099,9 @@
       <c r="C37" t="n">
         <v>1365</v>
       </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1004,6 +1117,9 @@
       <c r="C38" t="n">
         <v>8050</v>
       </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1019,6 +1135,9 @@
       <c r="C39" t="n">
         <v>8050</v>
       </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1034,6 +1153,9 @@
       <c r="C40" t="n">
         <v>10000</v>
       </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1049,6 +1171,9 @@
       <c r="C41" t="n">
         <v>99</v>
       </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1064,6 +1189,9 @@
       <c r="C42" t="n">
         <v>4185</v>
       </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1079,6 +1207,9 @@
       <c r="C43" t="n">
         <v>1257</v>
       </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1094,6 +1225,9 @@
       <c r="C44" t="n">
         <v>318.5</v>
       </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1109,6 +1243,9 @@
       <c r="C45" t="n">
         <v>2421</v>
       </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1124,6 +1261,9 @@
       <c r="C46" t="n">
         <v>2529.5</v>
       </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1139,6 +1279,9 @@
       <c r="C47" t="n">
         <v>1785</v>
       </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1154,6 +1297,9 @@
       <c r="C48" t="n">
         <v>96.59999999999999</v>
       </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1169,6 +1315,9 @@
       <c r="C49" t="n">
         <v>850</v>
       </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1184,6 +1333,9 @@
       <c r="C50" t="n">
         <v>60000</v>
       </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1199,6 +1351,9 @@
       <c r="C51" t="n">
         <v>4197</v>
       </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1214,6 +1369,9 @@
       <c r="C52" t="n">
         <v>5700</v>
       </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1229,6 +1387,9 @@
       <c r="C53" t="n">
         <v>61</v>
       </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1244,6 +1405,9 @@
       <c r="C54" t="n">
         <v>8050</v>
       </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1259,6 +1423,9 @@
       <c r="C55" t="n">
         <v>8050</v>
       </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1274,6 +1441,9 @@
       <c r="C56" t="n">
         <v>1224</v>
       </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1289,6 +1459,9 @@
       <c r="C57" t="n">
         <v>246</v>
       </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1304,6 +1477,9 @@
       <c r="C58" t="n">
         <v>2866</v>
       </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1319,6 +1495,9 @@
       <c r="C59" t="n">
         <v>570</v>
       </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1334,6 +1513,9 @@
       <c r="C60" t="n">
         <v>8050</v>
       </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1349,6 +1531,9 @@
       <c r="C61" t="n">
         <v>1761</v>
       </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1364,6 +1549,9 @@
       <c r="C62" t="n">
         <v>66</v>
       </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1379,6 +1567,9 @@
       <c r="C63" t="n">
         <v>463</v>
       </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1394,6 +1585,9 @@
       <c r="C64" t="n">
         <v>1700</v>
       </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1409,6 +1603,9 @@
       <c r="C65" t="n">
         <v>4257</v>
       </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1424,6 +1621,9 @@
       <c r="C66" t="n">
         <v>8050</v>
       </c>
+      <c r="D66" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1439,6 +1639,9 @@
       <c r="C67" t="n">
         <v>28500</v>
       </c>
+      <c r="D67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1454,6 +1657,9 @@
       <c r="C68" t="n">
         <v>73860</v>
       </c>
+      <c r="D68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1469,6 +1675,9 @@
       <c r="C69" t="n">
         <v>500000</v>
       </c>
+      <c r="D69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1484,6 +1693,9 @@
       <c r="C70" t="n">
         <v>675</v>
       </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1499,6 +1711,9 @@
       <c r="C71" t="n">
         <v>6643</v>
       </c>
+      <c r="D71" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1514,6 +1729,9 @@
       <c r="C72" t="n">
         <v>318.5</v>
       </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1529,6 +1747,9 @@
       <c r="C73" t="n">
         <v>19000</v>
       </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1544,6 +1765,9 @@
       <c r="C74" t="n">
         <v>3060</v>
       </c>
+      <c r="D74" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1559,6 +1783,9 @@
       <c r="C75" t="n">
         <v>11726</v>
       </c>
+      <c r="D75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1574,6 +1801,9 @@
       <c r="C76" t="n">
         <v>3540</v>
       </c>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1589,6 +1819,9 @@
       <c r="C77" t="n">
         <v>1516</v>
       </c>
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1604,6 +1837,9 @@
       <c r="C78" t="n">
         <v>7228</v>
       </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1619,6 +1855,9 @@
       <c r="C79" t="n">
         <v>28000</v>
       </c>
+      <c r="D79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1634,6 +1873,9 @@
       <c r="C80" t="n">
         <v>660</v>
       </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1649,6 +1891,9 @@
       <c r="C81" t="n">
         <v>1121</v>
       </c>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1664,6 +1909,9 @@
       <c r="C82" t="n">
         <v>8050</v>
       </c>
+      <c r="D82" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1679,6 +1927,9 @@
       <c r="C83" t="n">
         <v>2092</v>
       </c>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1694,6 +1945,9 @@
       <c r="C84" t="n">
         <v>1310</v>
       </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1709,6 +1963,9 @@
       <c r="C85" t="n">
         <v>1257</v>
       </c>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1724,6 +1981,9 @@
       <c r="C86" t="n">
         <v>10000</v>
       </c>
+      <c r="D86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1739,6 +1999,9 @@
       <c r="C87" t="n">
         <v>8050</v>
       </c>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1754,6 +2017,9 @@
       <c r="C88" t="n">
         <v>1156.25</v>
       </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1769,6 +2035,9 @@
       <c r="C89" t="n">
         <v>663000</v>
       </c>
+      <c r="D89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1784,6 +2053,9 @@
       <c r="C90" t="n">
         <v>1516</v>
       </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1799,6 +2071,9 @@
       <c r="C91" t="n">
         <v>73860</v>
       </c>
+      <c r="D91" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1814,6 +2089,9 @@
       <c r="C92" t="n">
         <v>24685</v>
       </c>
+      <c r="D92" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1829,6 +2107,9 @@
       <c r="C93" t="n">
         <v>210</v>
       </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1844,6 +2125,9 @@
       <c r="C94" t="n">
         <v>2765</v>
       </c>
+      <c r="D94" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1859,6 +2143,9 @@
       <c r="C95" t="n">
         <v>29</v>
       </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1874,6 +2161,9 @@
       <c r="C96" t="n">
         <v>1257</v>
       </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1889,6 +2179,9 @@
       <c r="C97" t="n">
         <v>8050</v>
       </c>
+      <c r="D97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1904,6 +2197,9 @@
       <c r="C98" t="n">
         <v>8050</v>
       </c>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1919,6 +2215,9 @@
       <c r="C99" t="n">
         <v>77.7</v>
       </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1934,6 +2233,9 @@
       <c r="C100" t="n">
         <v>16000</v>
       </c>
+      <c r="D100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1949,6 +2251,9 @@
       <c r="C101" t="n">
         <v>8050</v>
       </c>
+      <c r="D101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1964,6 +2269,9 @@
       <c r="C102" t="n">
         <v>7605</v>
       </c>
+      <c r="D102" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1979,6 +2287,9 @@
       <c r="C103" t="n">
         <v>3151</v>
       </c>
+      <c r="D103" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1994,6 +2305,9 @@
       <c r="C104" t="n">
         <v>3000</v>
       </c>
+      <c r="D104" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2009,6 +2323,9 @@
       <c r="C105" t="n">
         <v>1000</v>
       </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2024,6 +2341,9 @@
       <c r="C106" t="n">
         <v>95.3</v>
       </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2039,6 +2359,9 @@
       <c r="C107" t="n">
         <v>998</v>
       </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2054,6 +2377,9 @@
       <c r="C108" t="n">
         <v>4731</v>
       </c>
+      <c r="D108" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2069,6 +2395,9 @@
       <c r="C109" t="n">
         <v>862</v>
       </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2084,6 +2413,9 @@
       <c r="C110" t="n">
         <v>1641</v>
       </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2099,6 +2431,9 @@
       <c r="C111" t="n">
         <v>474.3333333333333</v>
       </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2114,6 +2449,9 @@
       <c r="C112" t="n">
         <v>62</v>
       </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2129,6 +2467,9 @@
       <c r="C113" t="n">
         <v>2374.5</v>
       </c>
+      <c r="D113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2144,6 +2485,9 @@
       <c r="C114" t="n">
         <v>21000</v>
       </c>
+      <c r="D114" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2159,6 +2503,9 @@
       <c r="C115" t="n">
         <v>95.3</v>
       </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2174,6 +2521,9 @@
       <c r="C116" t="n">
         <v>116000</v>
       </c>
+      <c r="D116" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2189,6 +2539,9 @@
       <c r="C117" t="n">
         <v>10000</v>
       </c>
+      <c r="D117" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2204,6 +2557,9 @@
       <c r="C118" t="n">
         <v>42.85</v>
       </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2219,6 +2575,9 @@
       <c r="C119" t="n">
         <v>16.75</v>
       </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2234,6 +2593,9 @@
       <c r="C120" t="n">
         <v>342</v>
       </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2249,6 +2611,9 @@
       <c r="C121" t="n">
         <v>290</v>
       </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2264,6 +2629,9 @@
       <c r="C122" t="n">
         <v>183.3333333333333</v>
       </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2279,6 +2647,9 @@
       <c r="C123" t="n">
         <v>70</v>
       </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2294,6 +2665,9 @@
       <c r="C124" t="n">
         <v>295</v>
       </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2309,6 +2683,9 @@
       <c r="C125" t="n">
         <v>17.4775</v>
       </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2323,6 +2700,9 @@
       </c>
       <c r="C126" t="n">
         <v>73860</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
